--- a/Vivchar/prak1/задание27.xlsx
+++ b/Vivchar/prak1/задание27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45997E1-0552-4E0D-BAAC-4F5671C83A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C221162-3B1A-4675-94CA-58AB5C7A56A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>МИН</t>
   </si>
@@ -82,10 +82,13 @@
     <t>Ср.Кв</t>
   </si>
   <si>
-    <t>Восстановление</t>
+    <t>Вероятность непревышения</t>
   </si>
   <si>
-    <t>Вероятность непревышения</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>1,06*СТАНДОТКЛОН(A:A)*СЧЁТ(A:A)^(-1/5)</t>
   </si>
 </sst>
 </file>
@@ -94,8 +97,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -150,9 +153,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -185,6 +190,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -236,7 +266,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$24</c:f>
+              <c:f>Лист1!$I$4:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -308,7 +338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$4:$E$24</c:f>
+              <c:f>Лист1!$K$4:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00000000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -316,64 +346,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.6216216216216218E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>5.1351351351351348E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06</c:v>
+                  <c:v>1.6216216216216215E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.108</c:v>
+                  <c:v>2.918918918918919E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.112</c:v>
+                  <c:v>3.027027027027027E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.153</c:v>
+                  <c:v>4.135135135135135E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12</c:v>
+                  <c:v>3.2432432432432431E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.4E-2</c:v>
+                  <c:v>2.5405405405405406E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.106</c:v>
+                  <c:v>2.8648648648648647E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>1.7567567567567567E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>1.4594594594594595E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9E-2</c:v>
+                  <c:v>1.0540540540540541E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>5.1351351351351348E-8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>4.8648648648648647E-8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>3.5135135135135137E-8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2E-3</c:v>
+                  <c:v>5.4054054054054057E-9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>1.6216216216216218E-8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>8.108108108108109E-9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1E-3</c:v>
+                  <c:v>2.7027027027027029E-9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2E-3</c:v>
+                  <c:v>5.4054054054054057E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,6 +594,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ядерная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> оценка</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -602,6 +662,461 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1:$B$149</c:f>
+              <c:strCache>
+                <c:ptCount val="149"/>
+                <c:pt idx="0">
+                  <c:v>434000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>484000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>534000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>584000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>634000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>684000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>734000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>834000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>884000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>934000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>984000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1034000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1084000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1134000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1184000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1234000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1284000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1334000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1384000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1434000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1484000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1534000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1584000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1634000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1684000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1734000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1784000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1834000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1884000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1934000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1984000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2034000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2084000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2134000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2184000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2234000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2284000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2334000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2384000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2434000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2484000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2534000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2584000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2634000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2684000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2734000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2784000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2834000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2884000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2934000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2984000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3034000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3084000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3134000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3184000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3234000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3284000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3334000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3384000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3434000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3484000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3534000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3584000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3634000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3684000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3734000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3784000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3834000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3884000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3934000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3984000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4034000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4084000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4134000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4184000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4234000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4284000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4334000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4384000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4434000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4484000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4534000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4584000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4634000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4684000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4734000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4784000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4834000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4884000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4934000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4984000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5034000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5084000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5134000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5184000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5234000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5284000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5334000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5384000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5434000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5484000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5534000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5584000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5634000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5684000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5734000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5784000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5834000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5884000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5934000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5984000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6034000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6084000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6134000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6184000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6234000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6284000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6334000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6384000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6434000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6484000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6534000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6584000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6634000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6684000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6734000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6784000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6834000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6884000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6934000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6984000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7034000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7084000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7134000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7184000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7234000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7284000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7334000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7384000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7434000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7484000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7534000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7584000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7634000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7684000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7734000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7784000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7834000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -616,71 +1131,455 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$24</c:f>
+              <c:f>Лист1!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
                   <c:v>434000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>804000</c:v>
+                  <c:v>484000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1174000</c:v>
+                  <c:v>534000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1544000</c:v>
+                  <c:v>584000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1914000</c:v>
+                  <c:v>634000</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>684000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>734000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>834000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>884000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>934000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>984000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1034000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1084000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1134000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1184000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1234000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1284000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1334000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1384000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1434000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1484000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1534000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1584000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1634000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1684000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1734000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1784000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1834000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1884000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1934000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1984000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2034000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2084000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2134000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2184000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2234000</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2284000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2654000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3024000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3394000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3764000</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="38">
+                  <c:v>2334000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2384000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2434000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2484000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2534000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2584000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2634000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2684000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2734000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2784000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2834000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2884000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2934000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2984000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3034000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3084000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3134000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3184000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3234000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3284000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3334000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3384000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3434000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3484000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3534000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3584000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3634000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3684000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3734000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3784000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3834000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3884000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3934000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3984000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4034000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4084000</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>4134000</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4504000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4874000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5244000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5614000</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="75">
+                  <c:v>4184000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4234000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4284000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4334000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4384000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4434000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4484000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4534000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4584000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4634000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4684000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4734000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4784000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4834000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4884000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4934000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4984000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5034000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5084000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5134000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5184000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5234000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5284000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5334000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5384000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5434000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5484000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5534000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5584000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5634000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5684000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5734000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5784000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5834000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5884000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5934000</c:v>
+                </c:pt>
+                <c:pt idx="111">
                   <c:v>5984000</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>6354000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6724000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7094000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7464000</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="112">
+                  <c:v>6034000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6084000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6134000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6184000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6234000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>6284000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6334000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6384000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6434000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6484000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6534000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6584000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6634000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6684000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6734000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6784000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6834000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6884000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6934000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6984000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7034000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7084000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7134000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7184000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7234000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7284000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7334000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7384000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7434000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7484000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7534000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7584000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7634000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7684000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7734000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7784000</c:v>
+                </c:pt>
+                <c:pt idx="148">
                   <c:v>7834000</c:v>
                 </c:pt>
               </c:numCache>
@@ -688,66 +1587,456 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$N$5:$N$23</c:f>
+              <c:f>Лист1!$C$1:$C$149</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>2.3184829038448842E-2</c:v>
+                  <c:v>2.8818480728985927E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.939392352461641E-2</c:v>
+                  <c:v>3.5079709601309686E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0601674974376712E-2</c:v>
+                  <c:v>4.2412606435681227E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4405368228354691E-2</c:v>
+                  <c:v>5.0946524491732887E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10643526863163866</c:v>
+                  <c:v>6.0815865454576014E-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12151533906331499</c:v>
+                  <c:v>7.2159208350600772E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12560493299074293</c:v>
+                  <c:v>8.511850306586378E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11754721390510059</c:v>
+                  <c:v>9.9837738082879751E-8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9597407614107875E-2</c:v>
+                  <c:v>1.1646015861935159E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6403592511982102E-2</c:v>
+                  <c:v>1.351229500289227E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3065171915669868E-2</c:v>
+                  <c:v>1.5594842980955839E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3368403012549522E-2</c:v>
+                  <c:v>1.7903127483408184E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8997275432707048E-2</c:v>
+                  <c:v>2.0442212879117477E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.7921321837019844E-3</c:v>
+                  <c:v>2.3210896963593034E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5697586756828779E-3</c:v>
+                  <c:v>2.6199866100797879E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9308090038306393E-3</c:v>
+                  <c:v>2.9390190663943236E-7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3861039484987199E-4</c:v>
+                  <c:v>3.2752512094475202E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5581238464016782E-4</c:v>
+                  <c:v>3.6247234358976068E-7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0215402600971797E-5</c:v>
+                  <c:v>3.9825921335737418E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3433929299695633E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.701409754933007E-7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0511118726224295E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3876054929521276E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7070391277992602E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0069045105366759E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.2861876253424749E-7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5453451015423091E-7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7861062066396206E-7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.011125429801011E-7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.2235309221016428E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.426426720242245E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.622410302982087E-7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.813162006770158E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.999151019970357E-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1794867508088423E-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3519270505255646E-7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.5130382688739281E-7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.6584878221517323E-7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.7834385367733897E-7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8830057508825925E-7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.9527332011963591E-7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.9890424031556817E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.9896129183368188E-7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.9536577425083809E-7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8820686392128527E-7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.7774194545846281E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.6438295197546043E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.4867021822131477E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3123636117220164E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1276333667685605E-7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.9393608064194377E-7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.7539611120990397E-7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.5769826335088722E-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.4127345222032655E-7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.2640006294925453E-7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.1318621881235011E-7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.0156471096556301E-7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.913016919192488E-7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8201928486810274E-7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.732310538840187E-7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.6438791229290953E-7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5493069155161435E-7</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.4434447238554481E-7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3220912252686403E-7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.182404799227731E-7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.0231737158759189E-7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.8449115304013069E-7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.6497654296451041E-7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.4412493505212941E-7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.2238372215982537E-7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0024706241928632E-7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.7820459666375321E-7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.5669466846980729E-7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.3606757808584718E-7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1656251865231129E-7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.9829948787298874E-7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.8128513459844918E-7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.6542966055497863E-7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.505708787262028E-7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3650142410671896E-7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2299576243704862E-7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.0983470452851339E-7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.9682620138269645E-7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8382193961577003E-7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7072953347888182E-7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5751999388691641E-7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.4422989070566445E-7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3095751349582167E-7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1785260629001785E-7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0509996241192776E-7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9289817790684061E-7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8143589281536682E-7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7086857312303916E-7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.61299053516244E-7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5276458385504498E-7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4523209798997295E-7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3860209595809761E-7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.327202064644087E-7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2739445182621227E-7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2241564547384141E-7</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.1757825333038322E-7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1269936744750425E-7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0763402314430396E-7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0228577304202202E-7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.6612076333721561E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.062458814689168E-8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.4384817769317207E-8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.7995883270589709E-8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.1591260073565314E-8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.5321536938529425E-8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.9340274258604799E-8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.3790106913123515E-8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.879023139329353E-8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.4426340238282749E-8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.0743893113794409E-8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.7745331699756656E-8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.5391463521714837E-8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.3606791562331595E-8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.2288109665431091E-8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.1315291983547344E-8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0562952127348715E-8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.9911589656409256E-8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9256997249763412E-8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.8517044574675641E-8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.7635414792707836E-8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.6582350106225838E-8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.5352865266478423E-8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.3963138812494277E-8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.2445861251116781E-8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0845227093638412E-8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.9212062672587091E-8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.7599360716967537E-8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.6058314805604534E-8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4634853091791079E-8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.3366665455360491E-8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.2280773848656559E-8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.139176725840321E-8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.0700866855771013E-8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.019597619031861E-8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.8528012422001576E-9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.6370118111977153E-9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>9.5072867645867907E-9</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>9.4189697643073701E-9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>9.3279808040109456E-9</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.1945933099963139E-9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>8.9866984629670077E-9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8.6822335896044073E-9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.2705428561978351E-9</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.752557200230093E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,7 +2044,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB69-49F1-A402-B29D100F44DF}"/>
+              <c16:uniqueId val="{00000096-BE11-4324-B2B2-EC32DE16117A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -768,11 +2057,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="789534016"/>
-        <c:axId val="789519616"/>
+        <c:axId val="1652187952"/>
+        <c:axId val="1652185552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="789534016"/>
+        <c:axId val="1652187952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +2104,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789519616"/>
+        <c:crossAx val="1652185552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -823,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="789519616"/>
+        <c:axId val="1652185552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +2132,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -874,7 +2163,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="789534016"/>
+        <c:crossAx val="1652187952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,16 +3322,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2069,27 +3358,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB92453-A5C7-FB51-6E0B-68B97F68D938}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD0DCC2B-85D5-48FE-BD36-CA29D5AA885C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2393,1474 +3684,2675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2855295.3197292201</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1">
+        <v>434000</v>
+      </c>
+      <c r="C1" s="6" cm="1">
+        <f t="array" ref="C1">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B1-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.8818480728985927E-8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2366468.9645927302</v>
       </c>
-      <c r="C2">
+      <c r="B2">
+        <f>B1+50000</f>
+        <v>484000</v>
+      </c>
+      <c r="C2" s="6" cm="1">
+        <f t="array" ref="C2">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B2-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.5079709601309686E-8</v>
+      </c>
+      <c r="D2">
+        <f>1.06*STDEV(A:A)*COUNT(A:A)^(-1/5)</f>
+        <v>311446.76400430908</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <f>MIN(A:A)</f>
         <v>434293.17925401399</v>
       </c>
-      <c r="D2">
+      <c r="J2">
         <f>MAX(A:A)</f>
         <v>7832189.6931119198</v>
       </c>
-      <c r="E2">
+      <c r="K2">
         <v>370000</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4">
-        <v>2.1016257000000001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2623284.7914392501</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">B2+50000</f>
+        <v>534000</v>
+      </c>
+      <c r="C3" s="6" cm="1">
+        <f t="array" ref="C3">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B3-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.2412606435681227E-8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="I3">
-        <f>SUM(I4:I24)</f>
-        <v>3147210</v>
-      </c>
-      <c r="K3" s="3">
-        <f>SUM(K5:K24)</f>
-        <v>1377229195900.0002</v>
-      </c>
-      <c r="L3">
-        <f>SQRT(K3)</f>
-        <v>1173554.0873347083</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>SUM(O4:O24)</f>
+        <v>8.5059729729729749</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>SUM(Q5:Q24)</f>
+        <v>30492179.567313377</v>
+      </c>
+      <c r="R3">
+        <f>SQRT(Q3)</f>
+        <v>5521.9724344941615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2492254.8185910098</v>
       </c>
-      <c r="C4">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>584000</v>
+      </c>
+      <c r="C4" s="6" cm="1">
+        <f t="array" ref="C4">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B4-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.0946524491732887E-8</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">1/(20*D$2)*SUMPRODUCT((2000000-I4:I24)^2/(2*D$2^2))</f>
+        <v>1.6637349549254138E-4</v>
+      </c>
+      <c r="F4">
+        <f>SUM(C1:C33)/SUM(C:C)</f>
+        <v>0.2387627512878874</v>
+      </c>
+      <c r="I4">
         <v>434000</v>
       </c>
-      <c r="D4">
-        <f>G4</f>
+      <c r="J4">
+        <f>M4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4/(1000)</f>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K24" si="1">J4/(1000)/K$2</f>
         <v>0</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4:G25">FREQUENCY(A:A,C4:C24)</f>
+      <c r="M4" cm="1">
+        <f t="array" ref="M4:M25">FREQUENCY(A:A,I4:I24)</f>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f>C4*E4</f>
+      <c r="O4">
+        <f>I4*K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <f>E4*(C4-I$3)^2</f>
+      <c r="Q4" s="3">
+        <f>K4*(I4-O$3)^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4162340.0177383898</v>
       </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C24" si="0">C4+$E$2</f>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>634000</v>
+      </c>
+      <c r="C5" s="6" cm="1">
+        <f t="array" ref="C5">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B5-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.0815865454576014E-8</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">1/(20*D$2)*SUMPRODUCT((I5-I5:I25)^2/(2*D$2^2))</f>
+        <v>2.8036149969819219E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I24" si="2">I4+$K$2</f>
         <v>804000</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D23" si="1">G5</f>
+      <c r="J5">
+        <f t="shared" ref="J5:J23" si="3">M5</f>
         <v>6</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" ref="E5:E24" si="2">D5/(1000)</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G5">
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6216216216216218E-8</v>
+      </c>
+      <c r="M5">
         <v>6</v>
       </c>
-      <c r="I5">
-        <f>C5*E5</f>
-        <v>4824</v>
-      </c>
-      <c r="K5" s="3">
-        <f>E5*(C5-$I$3)^2</f>
-        <v>32943798624.600002</v>
-      </c>
-      <c r="N5" s="5">
-        <f>(E$2 / ($L$3 * SQRT(2 * PI()))) * EXP(-(((C5+C6)/2 - $I$3)^2) / (2 * $K$3))</f>
-        <v>2.3184829038448842E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>I5*K5</f>
+        <v>1.3037837837837839E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q24" si="4">K5*(I5-$O$3)^2</f>
+        <v>10482.199823802343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1575362.1936313901</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <f t="shared" si="0"/>
+        <v>684000</v>
+      </c>
+      <c r="C6" s="6" cm="1">
+        <f t="array" ref="C6">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B6-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.2159208350600772E-8</v>
+      </c>
+      <c r="D6" cm="1">
+        <f t="array" ref="D6">1/(20*D$2)*SUMPRODUCT((I6-I6:I26)^2/(2*D$2^2))</f>
+        <v>2.4120999106042756E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
         <v>1174000</v>
       </c>
-      <c r="D6">
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
+        <v>5.1351351351351348E-8</v>
+      </c>
+      <c r="M6">
         <v>19</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="G6">
-        <v>19</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I24" si="3">C6*E6</f>
-        <v>22306</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" ref="K6:K24" si="4">E6*(C6-$I$3)^2</f>
-        <v>73977596377.899994</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ref="N6:N24" si="5">(E$2 / ($L$3 * SQRT(2 * PI()))) * EXP(-(((C6+C7)/2 - $I$3)^2) / (2 * $K$3))</f>
-        <v>3.939392352461641E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" ref="O6:O24" si="5">I6*K6</f>
+        <v>6.0286486486486483E-2</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="4"/>
+        <v>70775.309548401085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3110290.2633619099</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <f t="shared" si="0"/>
+        <v>734000</v>
+      </c>
+      <c r="C7" s="6" cm="1">
+        <f t="array" ref="C7">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B7-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.511850306586378E-8</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" ref="D7">1/(20*D$2)*SUMPRODUCT((I7-I7:I27)^2/(2*D$2^2))</f>
+        <v>2.0814124261907821E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
         <v>1544000</v>
       </c>
-      <c r="D7">
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
+        <v>1.6216216216216215E-7</v>
+      </c>
+      <c r="M7">
         <v>60</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>92640</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0.25037837837837834</v>
+      </c>
+      <c r="Q7" s="3">
         <f t="shared" si="4"/>
-        <v>154216938246</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="5"/>
-        <v>6.0601674974376712E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>386579.9568045098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2528643.5585564198</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <f t="shared" si="0"/>
+        <v>784000</v>
+      </c>
+      <c r="C8" s="6" cm="1">
+        <f t="array" ref="C8">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B8-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.9837738082879751E-8</v>
+      </c>
+      <c r="D8" cm="1">
+        <f t="array" ref="D8">1/(20*D$2)*SUMPRODUCT((I8-F8:F28)^2/(2*D$2^2))</f>
+        <v>6.3663674568616166E-5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
         <v>1914000</v>
       </c>
-      <c r="D8">
+      <c r="J8">
+        <f>M8</f>
+        <v>108</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
+        <v>2.918918918918919E-7</v>
+      </c>
+      <c r="M8">
         <v>108</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.108</v>
-      </c>
-      <c r="G8">
-        <v>108</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>206712</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>0.55868108108108105</v>
+      </c>
+      <c r="Q8" s="3">
         <f t="shared" si="4"/>
-        <v>164247145642.79999</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5">
-        <f>(E$2 / ($L$3 * SQRT(2 * PI()))) * EXP(-(((C8+C9)/2 - $I$3)^2) / (2 * $K$3))</f>
-        <v>8.4405368228354691E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1069306.0849579556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2200777.39824495</v>
       </c>
-      <c r="C9">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>834000</v>
+      </c>
+      <c r="C9" s="6" cm="1">
+        <f t="array" ref="C9">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B9-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.1646015861935159E-7</v>
+      </c>
+      <c r="D9" cm="1">
+        <f t="array" ref="D9">1/(20*D$2)*SUMPRODUCT((I9-F9:F29)^2/(2*D$2^2))</f>
+        <v>9.0656726687592337E-5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2284000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>3.027027027027027E-7</v>
+      </c>
+      <c r="M9">
+        <v>112</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0.69137297297297295</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="4"/>
+        <v>1579084.1086925264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4163175.56114269</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>884000</v>
+      </c>
+      <c r="C10" s="6" cm="1">
+        <f t="array" ref="C10">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B10-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.351229500289227E-7</v>
+      </c>
+      <c r="D10" cm="1">
+        <f t="array" ref="D10">1/(20*D$2)*SUMPRODUCT((I10-F10:F30)^2/(2*D$2^2))</f>
+        <v>1.2240796331539232E-4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2654000</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.135135135135135E-7</v>
+      </c>
+      <c r="M10">
+        <v>153</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>1.0974648648648648</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="4"/>
+        <v>2912653.0813683108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2281315.6726369001</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>934000</v>
+      </c>
+      <c r="C11" s="6" cm="1">
+        <f t="array" ref="C11">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B11-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.5594842980955839E-7</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">1/(20*D$2)*SUMPRODUCT((I11-F11:F31)^2/(2*D$2^2))</f>
+        <v>1.5891738445201605E-4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3024000</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2432432432432431E-7</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>0.98075675675675666</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="4"/>
+        <v>2965791.7478749654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1185933.3043304801</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>984000</v>
+      </c>
+      <c r="C12" s="6" cm="1">
+        <f t="array" ref="C12">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B12-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.7903127483408184E-7</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">1/(20*D$2)*SUMPRODUCT((I12-F12:F32)^2/(2*D$2^2))</f>
+        <v>2.0018499009746371E-4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>3394000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5405405405405406E-7</v>
+      </c>
+      <c r="M12">
+        <v>94</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0.86225945945945948</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="4"/>
+        <v>2926493.9367124708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3674666.3274084898</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1034000</v>
+      </c>
+      <c r="C13" s="6" cm="1">
+        <f t="array" ref="C13">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B13-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.0442212879117477E-7</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">1/(20*D$2)*SUMPRODUCT((I13-F13:F33)^2/(2*D$2^2))</f>
+        <v>2.4621078025173509E-4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>3764000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8648648648648647E-7</v>
+      </c>
+      <c r="M13">
+        <v>106</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>1.0783351351351351</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="4"/>
+        <v>4058835.1040903456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1133116.05731197</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1084000</v>
+      </c>
+      <c r="C14" s="6" cm="1">
+        <f t="array" ref="C14">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B14-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.3210896963593034E-7</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">1/(20*D$2)*SUMPRODUCT((I14-F14:F34)^2/(2*D$2^2))</f>
+        <v>2.9699475491483027E-4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>4134000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7567567567567567E-7</v>
+      </c>
+      <c r="M14">
+        <v>65</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.72624324324324319</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="4"/>
+        <v>3002277.21276948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>764247.70913378696</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1134000</v>
+      </c>
+      <c r="C15" s="6" cm="1">
+        <f t="array" ref="C15">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B15-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.6199866100797879E-7</v>
+      </c>
+      <c r="D15" cm="1">
+        <f t="array" ref="D15">1/(20*D$2)*SUMPRODUCT((I15-F15:F35)^2/(2*D$2^2))</f>
+        <v>3.5253691408674946E-4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>4504000</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4594594594594595E-7</v>
+      </c>
+      <c r="M15">
+        <v>54</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0.65734054054054059</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="4"/>
+        <v>2960650.6119634099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2773252.7406304702</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1184000</v>
+      </c>
+      <c r="C16" s="6" cm="1">
+        <f t="array" ref="C16">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B16-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.9390190663943236E-7</v>
+      </c>
+      <c r="D16" cm="1">
+        <f t="array" ref="D16">1/(20*D$2)*SUMPRODUCT((I16-F16:F36)^2/(2*D$2^2))</f>
+        <v>4.1283725776749208E-4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>4874000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0540540540540541E-7</v>
+      </c>
+      <c r="M16">
+        <v>39</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0.51374594594594591</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="4"/>
+        <v>2503989.000729904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1612946.9310021501</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1234000</v>
+      </c>
+      <c r="C17" s="6" cm="1">
+        <f t="array" ref="C17">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B17-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.2752512094475202E-7</v>
+      </c>
+      <c r="D17" cm="1">
+        <f t="array" ref="D17">1/(20*D$2)*SUMPRODUCT((I17-F17:F37)^2/(2*D$2^2))</f>
+        <v>4.7789578595705892E-4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>5244000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1351351351351348E-8</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0.26928648648648645</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="4"/>
+        <v>1412133.7540516981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1764146.77204683</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1284000</v>
+      </c>
+      <c r="C18" s="6" cm="1">
+        <f t="array" ref="C18">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B18-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.6247234358976068E-7</v>
+      </c>
+      <c r="D18" cm="1">
+        <f t="array" ref="D18">1/(20*D$2)*SUMPRODUCT((I18-F18:F38)^2/(2*D$2^2))</f>
+        <v>5.4771249865544897E-4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>5614000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="1"/>
+        <v>4.8648648648648647E-8</v>
+      </c>
+      <c r="M18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>0.27311351351351348</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="4"/>
+        <v>1533254.6186760555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2971473.0869506001</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1334000</v>
+      </c>
+      <c r="C19" s="6" cm="1">
+        <f t="array" ref="C19">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B19-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.9825921335737418E-7</v>
+      </c>
+      <c r="D19" cm="1">
+        <f t="array" ref="D19">1/(20*D$2)*SUMPRODUCT((I19-F19:F39)^2/(2*D$2^2))</f>
+        <v>6.222873958626633E-4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>5984000</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5135135135135137E-8</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0.21024864864864864</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="4"/>
+        <v>1258124.3367774098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2172672.1041596001</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1384000</v>
+      </c>
+      <c r="C20" s="6" cm="1">
+        <f t="array" ref="C20">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B20-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.3433929299695633E-7</v>
+      </c>
+      <c r="D20" cm="1">
+        <f t="array" ref="D20">1/(20*D$2)*SUMPRODUCT((I20-F20:F40)^2/(2*D$2^2))</f>
+        <v>7.0162047757870187E-4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>6354000</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4054054054054057E-9</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>3.4345945945945949E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="4"/>
+        <v>218233.55624955575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1845084.58762524</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1434000</v>
+      </c>
+      <c r="C21" s="6" cm="1">
+        <f t="array" ref="C21">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B21-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.701409754933007E-7</v>
+      </c>
+      <c r="D21" cm="1">
+        <f t="array" ref="D21">1/(20*D$2)*SUMPRODUCT((I21-F21:F41)^2/(2*D$2^2))</f>
+        <v>7.8571174380356369E-4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>6724000</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6216216216216218E-8</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>0.10903783783783785</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="4"/>
+        <v>733168.56667699164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2713826.8394726901</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1484000</v>
+      </c>
+      <c r="C22" s="6" cm="1">
+        <f t="array" ref="C22">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B22-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.0511118726224295E-7</v>
+      </c>
+      <c r="D22" cm="1">
+        <f t="array" ref="D22">1/(20*D$2)*SUMPRODUCT((I22-F22:F42)^2/(2*D$2^2))</f>
+        <v>8.7456119453724909E-4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>7094000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="1"/>
+        <v>8.108108108108109E-9</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>5.7518918918918922E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="4"/>
+        <v>408038.23230265797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2608106.6328092199</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1534000</v>
+      </c>
+      <c r="C23" s="6" cm="1">
+        <f t="array" ref="C23">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B23-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.3876054929521276E-7</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" ref="D23">1/(20*D$2)*SUMPRODUCT((I23-F23:F43)^2/(2*D$2^2))</f>
+        <v>9.6816882977975895E-4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>7464000</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="1"/>
+        <v>2.7027027027027029E-9</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>2.0172972972972974E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="4"/>
+        <v>150570.72708894004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4781201.3584243003</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1584000</v>
+      </c>
+      <c r="C24" s="6" cm="1">
+        <f t="array" ref="C24">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B24-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.7070391277992602E-7</v>
+      </c>
+      <c r="D24" cm="1">
+        <f t="array" ref="D24">1/(20*D$2)*SUMPRODUCT((I24-F24:F44)^2/(2*D$2^2))</f>
+        <v>1.0665346495310915E-3</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>7834000</v>
+      </c>
+      <c r="J24">
+        <f>M24</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4054054054054057E-9</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>4.2345945945945949E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="4"/>
+        <v>331737.42015398818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2290327.9892017199</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1634000</v>
+      </c>
+      <c r="C25" s="6" cm="1">
+        <f t="array" ref="C25">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B25-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.0069045105366759E-7</v>
+      </c>
+      <c r="J25">
+        <f>SUM(J4:J24)</f>
+        <v>1000</v>
+      </c>
+      <c r="K25" s="4">
+        <f>SUM(K4:K24)</f>
+        <v>2.7027027027027022E-6</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2442476.6762563498</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1684000</v>
+      </c>
+      <c r="C26" s="6" cm="1">
+        <f t="array" ref="C26">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B26-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.2861876253424749E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2618359.1413594498</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1734000</v>
+      </c>
+      <c r="C27" s="6" cm="1">
+        <f t="array" ref="C27">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B27-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.5453451015423091E-7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f>K25*K2</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1708666.6402236701</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1784000</v>
+      </c>
+      <c r="C28" s="6" cm="1">
+        <f t="array" ref="C28">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B28-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.7861062066396206E-7</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3187632.3813593602</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1834000</v>
+      </c>
+      <c r="C29" s="6" cm="1">
+        <f t="array" ref="C29">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B29-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.011125429801011E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1640211.4374565301</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1884000</v>
+      </c>
+      <c r="C30" s="6" cm="1">
+        <f t="array" ref="C30">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B30-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.2235309221016428E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3505032.7936506001</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1934000</v>
+      </c>
+      <c r="C31" s="6" cm="1">
+        <f t="array" ref="C31">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B31-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.426426720242245E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5368450.1140864901</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1984000</v>
+      </c>
+      <c r="C32" s="6" cm="1">
+        <f t="array" ref="C32">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B32-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.622410302982087E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3383240.2278032401</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2034000</v>
+      </c>
+      <c r="C33" s="6" cm="1">
+        <f t="array" ref="C33">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B33-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.813162006770158E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4315373.5486738598</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2084000</v>
+      </c>
+      <c r="C34" s="6" cm="1">
+        <f t="array" ref="C34">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B34-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.999151019970357E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2488191.7092036302</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2134000</v>
+      </c>
+      <c r="C35" s="6" cm="1">
+        <f t="array" ref="C35">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B35-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.1794867508088423E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1805950.3434297999</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2184000</v>
+      </c>
+      <c r="C36" s="6" cm="1">
+        <f t="array" ref="C36">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B36-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.3519270505255646E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2677391.0583039401</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2234000</v>
+      </c>
+      <c r="C37" s="6" cm="1">
+        <f t="array" ref="C37">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B37-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.5130382688739281E-7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3939334.13059106</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>2284000</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.112</v>
-      </c>
-      <c r="G9">
-        <v>112</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>255808</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="4"/>
-        <v>83454728459.199997</v>
-      </c>
-      <c r="N9" s="5">
-        <f>(E$2 / ($L$3 * SQRT(2 * PI()))) * EXP(-(((C9+C10)/2 - $I$3)^2) / (2 * $K$3))</f>
-        <v>0.10643526863163866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4163175.56114269</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2654000</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="2"/>
-        <v>0.153</v>
-      </c>
-      <c r="G10">
-        <v>153</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>406062</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="4"/>
-        <v>37218183927.300003</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="5"/>
-        <v>0.12151533906331499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2281315.6726369001</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>3024000</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="G11">
-        <v>120</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>362880</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="4"/>
-        <v>1821684492</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="5"/>
-        <v>0.12560493299074293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1185933.3043304801</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3394000</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="2"/>
-        <v>9.4E-2</v>
-      </c>
-      <c r="G12">
-        <v>94</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>319036</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="4"/>
-        <v>5725098585.3999996</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="5"/>
-        <v>0.11754721390510059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3674666.3274084898</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>3764000</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.106</v>
-      </c>
-      <c r="G13">
-        <v>106</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>398984</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="4"/>
-        <v>40325569834.599998</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="5"/>
-        <v>9.9597407614107875E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1133116.05731197</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4134000</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="G14">
-        <v>65</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>268710</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="4"/>
-        <v>63294042766.5</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="5"/>
-        <v>7.6403592511982102E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>764247.70913378696</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4504000</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="2"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G15">
-        <v>54</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>243216</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="4"/>
-        <v>99407471621.399994</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="5"/>
-        <v>5.3065171915669868E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2773252.7406304702</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>4874000</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="2"/>
-        <v>3.9E-2</v>
-      </c>
-      <c r="G16">
-        <v>39</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>190086</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="4"/>
-        <v>116290344459.89999</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="5"/>
-        <v>3.3368403012549522E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1612946.9310021501</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>5244000</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9E-2</v>
-      </c>
-      <c r="G17">
-        <v>19</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>99636</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="4"/>
-        <v>83534037777.899994</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="5"/>
-        <v>1.8997275432707048E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1764146.77204683</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>5614000</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G18">
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>101051.99999999999</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="4"/>
-        <v>109530952273.79999</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="5"/>
-        <v>9.7921321837019844E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2971473.0869506001</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>5984000</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="2"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>77792</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="4"/>
-        <v>104615907553.29999</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="5"/>
-        <v>4.5697586756828779E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2172672.1041596001</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>6354000</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
-        <v>12708</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="4"/>
-        <v>20567004208.200001</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="5"/>
-        <v>1.9308090038306393E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1845084.58762524</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>6724000</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
-        <v>40344</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="4"/>
-        <v>76760560224.600006</v>
-      </c>
-      <c r="N21" s="5">
-        <f t="shared" si="5"/>
-        <v>7.3861039484987199E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2713826.8394726901</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>7094000</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>21282</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="4"/>
-        <v>46731453912.300003</v>
-      </c>
-      <c r="N22" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5581238464016782E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2608106.6328092199</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>7464000</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>7464</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="4"/>
-        <v>18634675904.100002</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" si="5"/>
-        <v>8.0215402600971797E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>4781201.3584243003</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>7834000</v>
-      </c>
-      <c r="D24">
-        <f>G24</f>
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
-        <v>15668</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="4"/>
-        <v>43932001008.200005</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="5"/>
-        <v>0.10143254663280389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2290327.9892017199</v>
-      </c>
-      <c r="D25">
-        <f>SUM(D4:D24)</f>
-        <v>1000</v>
-      </c>
-      <c r="E25" s="5">
-        <f>SUM(E4:E24)</f>
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2442476.6762563498</v>
-      </c>
-      <c r="N26" s="5">
-        <f>SUM(N5:N24)</f>
-        <v>1.0789202855217206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2618359.1413594498</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <f>E25*E2</f>
-        <v>370000</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1708666.6402236701</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="P28" s="5">
-        <f>SUM(N5:N8)</f>
-        <v>0.20758579576579667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3187632.3813593602</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1640211.4374565301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3505032.7936506001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5368450.1140864901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3383240.2278032401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4315373.5486738598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2488191.7092036302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1805950.3434297999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2677391.0583039401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3939334.13059106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" cm="1">
+        <f t="array" ref="C38">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B38-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.6584878221517323E-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2220264.4267434902</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2334000</v>
+      </c>
+      <c r="C39" s="6" cm="1">
+        <f t="array" ref="C39">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B39-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.7834385367733897E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4774213.9417862203</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2384000</v>
+      </c>
+      <c r="C40" s="6" cm="1">
+        <f t="array" ref="C40">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B40-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.8830057508825925E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3095388.0483959801</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2434000</v>
+      </c>
+      <c r="C41" s="6" cm="1">
+        <f t="array" ref="C41">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B41-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.9527332011963591E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1492309.26677922</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2484000</v>
+      </c>
+      <c r="C42" s="6" cm="1">
+        <f t="array" ref="C42">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B42-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.9890424031556817E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1720006.1770633</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2534000</v>
+      </c>
+      <c r="C43" s="6" cm="1">
+        <f t="array" ref="C43">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B43-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.9896129183368188E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1402039.9282122301</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2584000</v>
+      </c>
+      <c r="C44" s="6" cm="1">
+        <f t="array" ref="C44">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B44-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.9536577425083809E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4539324.4614678603</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2634000</v>
+      </c>
+      <c r="C45" s="6" cm="1">
+        <f t="array" ref="C45">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B45-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.8820686392128527E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2187745.1600812101</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2684000</v>
+      </c>
+      <c r="C46" s="6" cm="1">
+        <f t="array" ref="C46">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B46-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.7774194545846281E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3794809.1151222498</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2734000</v>
+      </c>
+      <c r="C47" s="6" cm="1">
+        <f t="array" ref="C47">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B47-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.6438295197546043E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1606960.4528439899</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2784000</v>
+      </c>
+      <c r="C48" s="6" cm="1">
+        <f t="array" ref="C48">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B48-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.4867021822131477E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2584915.3633226999</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2834000</v>
+      </c>
+      <c r="C49" s="6" cm="1">
+        <f t="array" ref="C49">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B49-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.3123636117220164E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2082922.91788923</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2884000</v>
+      </c>
+      <c r="C50" s="6" cm="1">
+        <f t="array" ref="C50">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B50-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.1276333667685605E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1835275.2126074799</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2934000</v>
+      </c>
+      <c r="C51" s="6" cm="1">
+        <f t="array" ref="C51">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B51-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.9393608064194377E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3756897.3861184502</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2984000</v>
+      </c>
+      <c r="C52" s="6" cm="1">
+        <f t="array" ref="C52">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B52-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.7539611120990397E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3568760.4820409198</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>3034000</v>
+      </c>
+      <c r="C53" s="6" cm="1">
+        <f t="array" ref="C53">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B53-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.5769826335088722E-7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6409617.2457054304</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>3084000</v>
+      </c>
+      <c r="C54" s="6" cm="1">
+        <f t="array" ref="C54">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B54-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.4127345222032655E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3546601.4857275002</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>3134000</v>
+      </c>
+      <c r="C55" s="6" cm="1">
+        <f t="array" ref="C55">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B55-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.2640006294925453E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4191072.9966706801</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>3184000</v>
+      </c>
+      <c r="C56" s="6" cm="1">
+        <f t="array" ref="C56">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B56-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.1318621881235011E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1833236.18134012</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>3234000</v>
+      </c>
+      <c r="C57" s="6" cm="1">
+        <f t="array" ref="C57">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B57-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.0156471096556301E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1486239.5824112301</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>3284000</v>
+      </c>
+      <c r="C58" s="6" cm="1">
+        <f t="array" ref="C58">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B58-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.913016919192488E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2506379.05483835</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>3334000</v>
+      </c>
+      <c r="C59" s="6" cm="1">
+        <f t="array" ref="C59">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B59-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.8201928486810274E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2520346.8156133099</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3384000</v>
+      </c>
+      <c r="C60" s="6" cm="1">
+        <f t="array" ref="C60">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B60-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.732310538840187E-7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3253769.29760325</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>3434000</v>
+      </c>
+      <c r="C61" s="6" cm="1">
+        <f t="array" ref="C61">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B61-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.6438791229290953E-7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3528869.6050960701</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3484000</v>
+      </c>
+      <c r="C62" s="6" cm="1">
+        <f t="array" ref="C62">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B62-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.5493069155161435E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3331816.3821132001</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>3534000</v>
+      </c>
+      <c r="C63" s="6" cm="1">
+        <f t="array" ref="C63">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B63-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.4434447238554481E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1261409.47967391</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>3584000</v>
+      </c>
+      <c r="C64" s="6" cm="1">
+        <f t="array" ref="C64">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B64-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.3220912252686403E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2840216.84387998</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>3634000</v>
+      </c>
+      <c r="C65" s="6" cm="1">
+        <f t="array" ref="C65">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B65-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.182404799227731E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4025162.81254926</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>3684000</v>
+      </c>
+      <c r="C66" s="6" cm="1">
+        <f t="array" ref="C66">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B66-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.0231737158759189E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3048639.1102247899</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="6">B66+50000</f>
+        <v>3734000</v>
+      </c>
+      <c r="C67" s="6" cm="1">
+        <f t="array" ref="C67">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B67-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.8449115304013069E-7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5732936.3872838598</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>3784000</v>
+      </c>
+      <c r="C68" s="6" cm="1">
+        <f t="array" ref="C68">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B68-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.6497654296451041E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2865441.0568249598</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>3834000</v>
+      </c>
+      <c r="C69" s="6" cm="1">
+        <f t="array" ref="C69">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B69-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.4412493505212941E-7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4762918.7906031301</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>3884000</v>
+      </c>
+      <c r="C70" s="6" cm="1">
+        <f t="array" ref="C70">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B70-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.2238372215982537E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3713236.51856039</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>3934000</v>
+      </c>
+      <c r="C71" s="6" cm="1">
+        <f t="array" ref="C71">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B71-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.0024706241928632E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6541810.7397303097</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>3984000</v>
+      </c>
+      <c r="C72" s="6" cm="1">
+        <f t="array" ref="C72">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B72-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.7820459666375321E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2913398.07690077</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>4034000</v>
+      </c>
+      <c r="C73" s="6" cm="1">
+        <f t="array" ref="C73">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B73-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.5669466846980729E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3374642.2882131799</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>4084000</v>
+      </c>
+      <c r="C74" s="6" cm="1">
+        <f t="array" ref="C74">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B74-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.3606757808584718E-7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2671442.1475863201</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>4134000</v>
+      </c>
+      <c r="C75" s="6" cm="1">
+        <f t="array" ref="C75">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B75-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.1656251865231129E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2226669.9844399798</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>4184000</v>
+      </c>
+      <c r="C76" s="6" cm="1">
+        <f t="array" ref="C76">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B76-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.9829948787298874E-7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1876155.6104873701</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>4234000</v>
+      </c>
+      <c r="C77" s="6" cm="1">
+        <f t="array" ref="C77">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B77-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.8128513459844918E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4697369.88370232</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>4284000</v>
+      </c>
+      <c r="C78" s="6" cm="1">
+        <f t="array" ref="C78">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B78-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.6542966055497863E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3423941.68031597</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>4334000</v>
+      </c>
+      <c r="C79" s="6" cm="1">
+        <f t="array" ref="C79">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B79-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.505708787262028E-7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1666824.6563076</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="6"/>
+        <v>4384000</v>
+      </c>
+      <c r="C80" s="6" cm="1">
+        <f t="array" ref="C80">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B80-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.3650142410671896E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3613692.86606366</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="6"/>
+        <v>4434000</v>
+      </c>
+      <c r="C81" s="6" cm="1">
+        <f t="array" ref="C81">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B81-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.2299576243704862E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4681652.2407895504</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="6"/>
+        <v>4484000</v>
+      </c>
+      <c r="C82" s="6" cm="1">
+        <f t="array" ref="C82">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B82-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.0983470452851339E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3927615.80303291</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" si="6"/>
+        <v>4534000</v>
+      </c>
+      <c r="C83" s="6" cm="1">
+        <f t="array" ref="C83">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B83-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.9682620138269645E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2209448.1018529399</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="6"/>
+        <v>4584000</v>
+      </c>
+      <c r="C84" s="6" cm="1">
+        <f t="array" ref="C84">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B84-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.8382193961577003E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1726482.1933526001</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" si="6"/>
+        <v>4634000</v>
+      </c>
+      <c r="C85" s="6" cm="1">
+        <f t="array" ref="C85">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B85-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.7072953347888182E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1826878.14490978</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="6"/>
+        <v>4684000</v>
+      </c>
+      <c r="C86" s="6" cm="1">
+        <f t="array" ref="C86">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B86-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.5751999388691641E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3240335.0895191799</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="6"/>
+        <v>4734000</v>
+      </c>
+      <c r="C87" s="6" cm="1">
+        <f t="array" ref="C87">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B87-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.4422989070566445E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2689345.3234626702</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="6"/>
+        <v>4784000</v>
+      </c>
+      <c r="C88" s="6" cm="1">
+        <f t="array" ref="C88">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B88-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.3095751349582167E-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2841566.7734473399</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="6"/>
+        <v>4834000</v>
+      </c>
+      <c r="C89" s="6" cm="1">
+        <f t="array" ref="C89">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B89-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.1785260629001785E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2056763.28212868</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="6"/>
+        <v>4884000</v>
+      </c>
+      <c r="C90" s="6" cm="1">
+        <f t="array" ref="C90">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B90-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.0509996241192776E-7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3514197.0775673799</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="6"/>
+        <v>4934000</v>
+      </c>
+      <c r="C91" s="6" cm="1">
+        <f t="array" ref="C91">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B91-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.9289817790684061E-7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2790932.2748754201</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="6"/>
+        <v>4984000</v>
+      </c>
+      <c r="C92" s="6" cm="1">
+        <f t="array" ref="C92">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B92-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.8143589281536682E-7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3248152.71184695</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="6"/>
+        <v>5034000</v>
+      </c>
+      <c r="C93" s="6" cm="1">
+        <f t="array" ref="C93">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B93-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.7086857312303916E-7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2869897.4643634302</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="6"/>
+        <v>5084000</v>
+      </c>
+      <c r="C94" s="6" cm="1">
+        <f t="array" ref="C94">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B94-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.61299053516244E-7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2492970.4979660301</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="6"/>
+        <v>5134000</v>
+      </c>
+      <c r="C95" s="6" cm="1">
+        <f t="array" ref="C95">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B95-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.5276458385504498E-7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4675791.2225695103</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="6"/>
+        <v>5184000</v>
+      </c>
+      <c r="C96" s="6" cm="1">
+        <f t="array" ref="C96">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B96-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.4523209798997295E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2314460.6976560601</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="6"/>
+        <v>5234000</v>
+      </c>
+      <c r="C97" s="6" cm="1">
+        <f t="array" ref="C97">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B97-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.3860209595809761E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3116798.4791804301</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="6"/>
+        <v>5284000</v>
+      </c>
+      <c r="C98" s="6" cm="1">
+        <f t="array" ref="C98">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B98-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.327202064644087E-7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1882386.22343234</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="6"/>
+        <v>5334000</v>
+      </c>
+      <c r="C99" s="6" cm="1">
+        <f t="array" ref="C99">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B99-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.2739445182621227E-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5407672.2379901903</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="6"/>
+        <v>5384000</v>
+      </c>
+      <c r="C100" s="6" cm="1">
+        <f t="array" ref="C100">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B100-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.2241564547384141E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4381816.9811498504</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="6"/>
+        <v>5434000</v>
+      </c>
+      <c r="C101" s="6" cm="1">
+        <f t="array" ref="C101">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B101-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.1757825333038322E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1982842.23980726</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="6"/>
+        <v>5484000</v>
+      </c>
+      <c r="C102" s="6" cm="1">
+        <f t="array" ref="C102">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B102-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.1269936744750425E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2747572.2559998999</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="6"/>
+        <v>5534000</v>
+      </c>
+      <c r="C103" s="6" cm="1">
+        <f t="array" ref="C103">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B103-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.0763402314430396E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1391699.42933556</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="6"/>
+        <v>5584000</v>
+      </c>
+      <c r="C104" s="6" cm="1">
+        <f t="array" ref="C104">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B104-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.0228577304202202E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2579279.6160269999</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <f t="shared" si="6"/>
+        <v>5634000</v>
+      </c>
+      <c r="C105" s="6" cm="1">
+        <f t="array" ref="C105">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B105-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.6612076333721561E-8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2394166.6273826198</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" si="6"/>
+        <v>5684000</v>
+      </c>
+      <c r="C106" s="6" cm="1">
+        <f t="array" ref="C106">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B106-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.062458814689168E-8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2189201.48181001</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="6"/>
+        <v>5734000</v>
+      </c>
+      <c r="C107" s="6" cm="1">
+        <f t="array" ref="C107">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B107-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.4384817769317207E-8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1269977.86731565</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="6"/>
+        <v>5784000</v>
+      </c>
+      <c r="C108" s="6" cm="1">
+        <f t="array" ref="C108">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B108-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.7995883270589709E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2028369.03118025</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="shared" si="6"/>
+        <v>5834000</v>
+      </c>
+      <c r="C109" s="6" cm="1">
+        <f t="array" ref="C109">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B109-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.1591260073565314E-8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1955620.1224998401</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f t="shared" si="6"/>
+        <v>5884000</v>
+      </c>
+      <c r="C110" s="6" cm="1">
+        <f t="array" ref="C110">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B110-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>6.5321536938529425E-8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2239133.87833081</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" si="6"/>
+        <v>5934000</v>
+      </c>
+      <c r="C111" s="6" cm="1">
+        <f t="array" ref="C111">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B111-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.9340274258604799E-8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3400692.3507902701</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <f t="shared" si="6"/>
+        <v>5984000</v>
+      </c>
+      <c r="C112" s="6" cm="1">
+        <f t="array" ref="C112">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B112-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>5.3790106913123515E-8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2043429.80343969</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f t="shared" si="6"/>
+        <v>6034000</v>
+      </c>
+      <c r="C113" s="6" cm="1">
+        <f t="array" ref="C113">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B113-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.879023139329353E-8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2703601.3011489902</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <f t="shared" si="6"/>
+        <v>6084000</v>
+      </c>
+      <c r="C114" s="6" cm="1">
+        <f t="array" ref="C114">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B114-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.4426340238282749E-8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2134716.03912511</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <f t="shared" si="6"/>
+        <v>6134000</v>
+      </c>
+      <c r="C115" s="6" cm="1">
+        <f t="array" ref="C115">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B115-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>4.0743893113794409E-8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2754317.1912553799</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <f t="shared" si="6"/>
+        <v>6184000</v>
+      </c>
+      <c r="C116" s="6" cm="1">
+        <f t="array" ref="C116">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B116-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.7745331699756656E-8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2809691.22137461</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" si="6"/>
+        <v>6234000</v>
+      </c>
+      <c r="C117" s="6" cm="1">
+        <f t="array" ref="C117">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B117-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.5391463521714837E-8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2120509.5931487801</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="6"/>
+        <v>6284000</v>
+      </c>
+      <c r="C118" s="6" cm="1">
+        <f t="array" ref="C118">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B118-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.3606791562331595E-8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1710890.37752963</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="6"/>
+        <v>6334000</v>
+      </c>
+      <c r="C119" s="6" cm="1">
+        <f t="array" ref="C119">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B119-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.2288109665431091E-8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4591508.1077776104</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <f t="shared" si="6"/>
+        <v>6384000</v>
+      </c>
+      <c r="C120" s="6" cm="1">
+        <f t="array" ref="C120">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B120-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.1315291983547344E-8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2098573.4314626101</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <f t="shared" si="6"/>
+        <v>6434000</v>
+      </c>
+      <c r="C121" s="6" cm="1">
+        <f t="array" ref="C121">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B121-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>3.0562952127348715E-8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2917695.6697718501</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f t="shared" si="6"/>
+        <v>6484000</v>
+      </c>
+      <c r="C122" s="6" cm="1">
+        <f t="array" ref="C122">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B122-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.9911589656409256E-8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3256300.6416018801</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <f t="shared" si="6"/>
+        <v>6534000</v>
+      </c>
+      <c r="C123" s="6" cm="1">
+        <f t="array" ref="C123">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B123-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.9256997249763412E-8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4304121.2169843204</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <f t="shared" si="6"/>
+        <v>6584000</v>
+      </c>
+      <c r="C124" s="6" cm="1">
+        <f t="array" ref="C124">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B124-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.8517044574675641E-8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5980231.4617190501</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <f t="shared" si="6"/>
+        <v>6634000</v>
+      </c>
+      <c r="C125" s="6" cm="1">
+        <f t="array" ref="C125">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B125-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.7635414792707836E-8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3133510.7698013298</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <f t="shared" si="6"/>
+        <v>6684000</v>
+      </c>
+      <c r="C126" s="6" cm="1">
+        <f t="array" ref="C126">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B126-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.6582350106225838E-8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3726661.2627829998</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <f t="shared" si="6"/>
+        <v>6734000</v>
+      </c>
+      <c r="C127" s="6" cm="1">
+        <f t="array" ref="C127">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B127-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.5352865266478423E-8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3292415.6577665498</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <f t="shared" si="6"/>
+        <v>6784000</v>
+      </c>
+      <c r="C128" s="6" cm="1">
+        <f t="array" ref="C128">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B128-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.3963138812494277E-8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5507695.7001802297</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <f t="shared" si="6"/>
+        <v>6834000</v>
+      </c>
+      <c r="C129" s="6" cm="1">
+        <f t="array" ref="C129">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B129-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.2445861251116781E-8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3456661.9744728599</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <f t="shared" si="6"/>
+        <v>6884000</v>
+      </c>
+      <c r="C130" s="6" cm="1">
+        <f t="array" ref="C130">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B130-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>2.0845227093638412E-8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2919953.1246212199</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <f t="shared" ref="B131:B149" si="7">B130+50000</f>
+        <v>6934000</v>
+      </c>
+      <c r="C131" s="6" cm="1">
+        <f t="array" ref="C131">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B131-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.9212062672587091E-8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2825558.55243466</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <f t="shared" si="7"/>
+        <v>6984000</v>
+      </c>
+      <c r="C132" s="6" cm="1">
+        <f t="array" ref="C132">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B132-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.7599360716967537E-8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2003492.95982597</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <f t="shared" si="7"/>
+        <v>7034000</v>
+      </c>
+      <c r="C133" s="6" cm="1">
+        <f t="array" ref="C133">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B133-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.6058314805604534E-8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3452392.78029024</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <f t="shared" si="7"/>
+        <v>7084000</v>
+      </c>
+      <c r="C134" s="6" cm="1">
+        <f t="array" ref="C134">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B134-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.4634853091791079E-8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1789943.1918601401</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <f t="shared" si="7"/>
+        <v>7134000</v>
+      </c>
+      <c r="C135" s="6" cm="1">
+        <f t="array" ref="C135">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B135-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.3366665455360491E-8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3571596.4610856902</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <f t="shared" si="7"/>
+        <v>7184000</v>
+      </c>
+      <c r="C136" s="6" cm="1">
+        <f t="array" ref="C136">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B136-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.2280773848656559E-8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2695242.4056799901</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f t="shared" si="7"/>
+        <v>7234000</v>
+      </c>
+      <c r="C137" s="6" cm="1">
+        <f t="array" ref="C137">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B137-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.139176725840321E-8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3446527.3094432899</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <f t="shared" si="7"/>
+        <v>7284000</v>
+      </c>
+      <c r="C138" s="6" cm="1">
+        <f t="array" ref="C138">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B138-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.0700866855771013E-8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4130694.1636642101</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <f t="shared" si="7"/>
+        <v>7334000</v>
+      </c>
+      <c r="C139" s="6" cm="1">
+        <f t="array" ref="C139">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B139-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>1.019597619031861E-8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3642450.7395267701</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <f t="shared" si="7"/>
+        <v>7384000</v>
+      </c>
+      <c r="C140" s="6" cm="1">
+        <f t="array" ref="C140">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B140-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.8528012422001576E-9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3852422.5517630498</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <f t="shared" si="7"/>
+        <v>7434000</v>
+      </c>
+      <c r="C141" s="6" cm="1">
+        <f t="array" ref="C141">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B141-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.6370118111977153E-9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3127048.5789575502</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <f t="shared" si="7"/>
+        <v>7484000</v>
+      </c>
+      <c r="C142" s="6" cm="1">
+        <f t="array" ref="C142">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B142-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.5072867645867907E-9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>886468.58905148797</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <f t="shared" si="7"/>
+        <v>7534000</v>
+      </c>
+      <c r="C143" s="6" cm="1">
+        <f t="array" ref="C143">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B143-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.4189697643073701E-9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4237849.1410616599</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <f t="shared" si="7"/>
+        <v>7584000</v>
+      </c>
+      <c r="C144" s="6" cm="1">
+        <f t="array" ref="C144">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B144-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.3279808040109456E-9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4273062.2783975797</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <f t="shared" si="7"/>
+        <v>7634000</v>
+      </c>
+      <c r="C145" s="6" cm="1">
+        <f t="array" ref="C145">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B145-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>9.1945933099963139E-9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3168681.9429261801</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <f t="shared" si="7"/>
+        <v>7684000</v>
+      </c>
+      <c r="C146" s="6" cm="1">
+        <f t="array" ref="C146">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B146-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.9866984629670077E-9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1357741.3324370999</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <f t="shared" si="7"/>
+        <v>7734000</v>
+      </c>
+      <c r="C147" s="6" cm="1">
+        <f t="array" ref="C147">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B147-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.6822335896044073E-9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2551088.8237261302</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <f t="shared" si="7"/>
+        <v>7784000</v>
+      </c>
+      <c r="C148" s="6" cm="1">
+        <f t="array" ref="C148">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B148-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>8.2705428561978351E-9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2302080.2292522802</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <f t="shared" si="7"/>
+        <v>7834000</v>
+      </c>
+      <c r="C149" s="6" cm="1">
+        <f t="array" ref="C149">1/(1000*$D$2)*SUMPRODUCT(EXP(-((B149-$A$1:$A$1000)^2)/(2*$D$2^2)))</f>
+        <v>7.752557200230093E-9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2669006.4791825302</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7832189.6931119198</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5708104.50177438</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3130706.8682645401</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2544047.8888549898</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5132561.3925830396</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1631434.4167142001</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2183796.1281526401</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2090811.4687900301</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3460805.5995226898</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1443922.96399553</v>
       </c>
@@ -8066,6 +10558,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
